--- a/Requirements Traceability Matrix.xlsx
+++ b/Requirements Traceability Matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Entry #</t>
   </si>
@@ -59,42 +59,18 @@
     <t>A customer account shall be set to "active" at the beginning of an instance.</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>The system shall be accessible by two different user accounts: customers and hotel staff members.</t>
-  </si>
-  <si>
-    <t>Both user accounts shall include password protection.</t>
-  </si>
-  <si>
     <t>Customers shall have the ability to add reservations and services to their account.</t>
   </si>
   <si>
-    <t>2..1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Different staff members shall have varying levels of access depending on their particular department.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The CAM shall maintain a record of all reservations associated with each customer account </t>
   </si>
   <si>
     <t>Records shall include room type, board basis, nights reserved, check-in time, and check-out time.</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>The CAM shall maintain a record of all additional services associated with each customer account</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>The CAM shall keep a record of contact and payment information for each customer account</t>
   </si>
   <si>
@@ -108,13 +84,64 @@
   </si>
   <si>
     <t>The current instance shall be terminated upon successful payment of this bill</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Users shall login under their personal user accounts</t>
+  </si>
+  <si>
+    <t>There shall be different account types for customers and staff members</t>
+  </si>
+  <si>
+    <t>New customers shall be able to create an account</t>
+  </si>
+  <si>
+    <t>The system shall be accessible by customers and hotel staff members.</t>
+  </si>
+  <si>
+    <t>New staff accounts shall be created by management</t>
+  </si>
+  <si>
+    <t>Various levels of access shall be granted for different staff members.</t>
+  </si>
+  <si>
+    <t>Staff members shall be restricted to performing operations related to their department.</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +154,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -184,12 +218,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDD984F-8580-4E3A-8590-0B4CE65796A1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,194 +579,330 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D13" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements Traceability Matrix.xlsx
+++ b/Requirements Traceability Matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Entry #</t>
   </si>
@@ -41,100 +41,106 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>A history file shall be maintained for each customer account.</t>
-  </si>
-  <si>
-    <t>The CAM shall track all reservations and services for each instance where a customers account is active.</t>
-  </si>
-  <si>
-    <t>An instance shall be terminated upon check-out and successful payment.</t>
-  </si>
-  <si>
-    <t>An instance shall begin with the addition of the first reservation or service.</t>
-  </si>
-  <si>
-    <t>The customer account shall be set to "non-active" at the termination of an instance.</t>
-  </si>
-  <si>
-    <t>A customer account shall be set to "active" at the beginning of an instance.</t>
-  </si>
-  <si>
-    <t>Customers shall have the ability to add reservations and services to their account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CAM shall maintain a record of all reservations associated with each customer account </t>
-  </si>
-  <si>
-    <t>Records shall include room type, board basis, nights reserved, check-in time, and check-out time.</t>
-  </si>
-  <si>
-    <t>The CAM shall maintain a record of all additional services associated with each customer account</t>
-  </si>
-  <si>
-    <t>The CAM shall keep a record of contact and payment information for each customer account</t>
-  </si>
-  <si>
-    <t>Pricing shall be tracked for all reservations and services added to a customer account during an active instance.</t>
-  </si>
-  <si>
-    <t>All pricing shall be automatically tallied during the check-out process</t>
-  </si>
-  <si>
     <t>An itemized bill shall be generated for the customer</t>
   </si>
   <si>
-    <t>The current instance shall be terminated upon successful payment of this bill</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
     <t>3.2</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>Users shall login under their personal user accounts</t>
-  </si>
-  <si>
-    <t>There shall be different account types for customers and staff members</t>
-  </si>
-  <si>
-    <t>New customers shall be able to create an account</t>
-  </si>
-  <si>
-    <t>The system shall be accessible by customers and hotel staff members.</t>
-  </si>
-  <si>
-    <t>New staff accounts shall be created by management</t>
-  </si>
-  <si>
-    <t>Various levels of access shall be granted for different staff members.</t>
-  </si>
-  <si>
-    <t>Staff members shall be restricted to performing operations related to their department.</t>
-  </si>
-  <si>
     <t>sw</t>
   </si>
   <si>
-    <t>ur</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HMS shall automate the scheduling and recording of all reservations </t>
+  </si>
+  <si>
+    <t>The purchase additional services shall be tracked for each customer account.</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HMS shall maintain daily schedules of guest rooms and function rooms </t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HMS shall maintain a database of base prices </t>
+  </si>
+  <si>
+    <t>Pricing of reservations shall be calculated dynamically</t>
+  </si>
+  <si>
+    <t>Pricing of additional services associated with a customer account shall be tracked</t>
+  </si>
+  <si>
+    <t>All pricing shall be tallied during the check-out procedure</t>
+  </si>
+  <si>
+    <t>The HMS shall maintain a daily schedule for the concierge, restaurant, spa, pool/gym, and laundry service respectively.</t>
+  </si>
+  <si>
+    <t>There shall be two basic user account types</t>
+  </si>
+  <si>
+    <t>Various levels of access shall be granted for different staff members</t>
+  </si>
+  <si>
+    <t>Staff members shall be restricted by their department</t>
+  </si>
+  <si>
+    <t>The system shall require users to log in under their personal user account</t>
+  </si>
+  <si>
+    <t>New customers shall have the opportunity to create a user account</t>
+  </si>
+  <si>
+    <t>Customers shall use the HMS to make reservations.</t>
+  </si>
+  <si>
+    <t>Customersr shall use the HMS to reserve additional services from the hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management shall create new accounts for staff members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff members shall use the HMS to Manage customer reservations and to perform customer check-in and check-out. </t>
+  </si>
+  <si>
+    <t>Staff shall add additional services to customer accounts</t>
+  </si>
+  <si>
+    <t>Staff shall have access to all schedules maintained by the HMS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HMS shall maintain records of current inventory </t>
+  </si>
+  <si>
+    <t>Consumption or use of inventory shall be automatically tracked</t>
+  </si>
+  <si>
+    <t>Any destruction to or loss of inventory shall be manually recorded into the HMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular orders for replacement inventory shall be automated by the HMS.  </t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -203,36 +209,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,362 +567,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDD984F-8580-4E3A-8590-0B4CE65796A1}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="D25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
